--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>201.1454945941596</v>
+        <v>328.6107208428464</v>
       </c>
       <c r="R2">
-        <v>1810.309451347436</v>
+        <v>2957.496487585618</v>
       </c>
       <c r="S2">
-        <v>0.08315185547116646</v>
+        <v>0.1111514631934493</v>
       </c>
       <c r="T2">
-        <v>0.08315185547116646</v>
+        <v>0.1111514631934493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>587.2863319562763</v>
+        <v>862.7726100939807</v>
       </c>
       <c r="R3">
-        <v>5285.576987606486</v>
+        <v>7764.953490845826</v>
       </c>
       <c r="S3">
-        <v>0.242779229500265</v>
+        <v>0.2918299128196716</v>
       </c>
       <c r="T3">
-        <v>0.242779229500265</v>
+        <v>0.2918299128196716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>53.07932104051056</v>
+        <v>61.92611919414713</v>
       </c>
       <c r="R4">
-        <v>477.713889364595</v>
+        <v>557.335072747324</v>
       </c>
       <c r="S4">
-        <v>0.0219425448259398</v>
+        <v>0.02094630004969676</v>
       </c>
       <c r="T4">
-        <v>0.02194254482593981</v>
+        <v>0.02094630004969675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>16.22688708850011</v>
+        <v>23.31107989094578</v>
       </c>
       <c r="R5">
-        <v>146.041983796501</v>
+        <v>209.799719018512</v>
       </c>
       <c r="S5">
-        <v>0.006708058625187204</v>
+        <v>0.007884893809466297</v>
       </c>
       <c r="T5">
-        <v>0.006708058625187205</v>
+        <v>0.007884893809466295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>305.268480143312</v>
+        <v>339.4743202031719</v>
       </c>
       <c r="R6">
-        <v>2747.416321289808</v>
+        <v>3055.268881828548</v>
       </c>
       <c r="S6">
-        <v>0.1261954218362909</v>
+        <v>0.1148260388778655</v>
       </c>
       <c r="T6">
-        <v>0.1261954218362909</v>
+        <v>0.1148260388778655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>891.2951608832041</v>
@@ -883,10 +883,10 @@
         <v>8021.656447948836</v>
       </c>
       <c r="S7">
-        <v>0.3684539221196266</v>
+        <v>0.3014775690072121</v>
       </c>
       <c r="T7">
-        <v>0.3684539221196266</v>
+        <v>0.3014775690072121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>80.55583692674001</v>
+        <v>63.97334561189601</v>
       </c>
       <c r="R8">
-        <v>725.0025323406601</v>
+        <v>575.760110507064</v>
       </c>
       <c r="S8">
-        <v>0.03330110536657097</v>
+        <v>0.02163876745075241</v>
       </c>
       <c r="T8">
-        <v>0.03330110536657098</v>
+        <v>0.02163876745075241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>24.626736825292</v>
+        <v>24.081724962848</v>
       </c>
       <c r="R9">
-        <v>221.640631427628</v>
+        <v>216.735524665632</v>
       </c>
       <c r="S9">
-        <v>0.01018048584858829</v>
+        <v>0.008145561894564219</v>
       </c>
       <c r="T9">
-        <v>0.01018048584858829</v>
+        <v>0.008145561894564219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>59.9620399028729</v>
+        <v>92.4634899498041</v>
       </c>
       <c r="R10">
-        <v>539.658359125856</v>
+        <v>832.1714095482369</v>
       </c>
       <c r="S10">
-        <v>0.02478780290764104</v>
+        <v>0.03127546226590877</v>
       </c>
       <c r="T10">
-        <v>0.02478780290764104</v>
+        <v>0.03127546226590876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>175.0717138468613</v>
+        <v>242.7643454777677</v>
       </c>
       <c r="R11">
-        <v>1575.645424621752</v>
+        <v>2184.879109299909</v>
       </c>
       <c r="S11">
-        <v>0.07237317383745326</v>
+        <v>0.08211421752109681</v>
       </c>
       <c r="T11">
-        <v>0.07237317383745327</v>
+        <v>0.08211421752109679</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>15.82309547956889</v>
+        <v>17.42458397295178</v>
       </c>
       <c r="R12">
-        <v>142.40785931612</v>
+        <v>156.821255756566</v>
       </c>
       <c r="S12">
-        <v>0.006541134570666057</v>
+        <v>0.005893806505043851</v>
       </c>
       <c r="T12">
-        <v>0.006541134570666058</v>
+        <v>0.005893806505043848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>4.837280860121777</v>
+        <v>6.559201098756445</v>
       </c>
       <c r="R13">
-        <v>43.535527741096</v>
+        <v>59.032809888808</v>
       </c>
       <c r="S13">
-        <v>0.001999691217373978</v>
+        <v>0.002218627553102641</v>
       </c>
       <c r="T13">
-        <v>0.001999691217373978</v>
+        <v>0.002218627553102641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>0.8994571670222223</v>
+        <v>0.4546073334733333</v>
       </c>
       <c r="R14">
-        <v>8.0951145032</v>
+        <v>4.09146600126</v>
       </c>
       <c r="S14">
-        <v>0.0003718280268003989</v>
+        <v>0.0001537693906164393</v>
       </c>
       <c r="T14">
-        <v>0.0003718280268003989</v>
+        <v>0.0001537693906164393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>2.626153279933333</v>
+        <v>1.19357869598</v>
       </c>
       <c r="R15">
-        <v>23.6353795194</v>
+        <v>10.74220826382</v>
       </c>
       <c r="S15">
-        <v>0.00108562967526933</v>
+        <v>0.0004037239508024234</v>
       </c>
       <c r="T15">
-        <v>0.00108562967526933</v>
+        <v>0.0004037239508024234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.2373534432222223</v>
+        <v>0.08566996185333334</v>
       </c>
       <c r="R16">
-        <v>2.136180989</v>
+        <v>0.77102965668</v>
       </c>
       <c r="S16">
-        <v>9.811991686027554E-05</v>
+        <v>2.897757439958546E-05</v>
       </c>
       <c r="T16">
-        <v>9.811991686027554E-05</v>
+        <v>2.897757439958545E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.07256135624444444</v>
+        <v>0.03224906309333334</v>
       </c>
       <c r="R17">
-        <v>0.6530522061999999</v>
+        <v>0.29024156784</v>
       </c>
       <c r="S17">
-        <v>2.99962543004185E-05</v>
+        <v>1.090813635126688E-05</v>
       </c>
       <c r="T17">
-        <v>2.999625430041851E-05</v>
+        <v>1.090813635126688E-05</v>
       </c>
     </row>
   </sheetData>
